--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_118__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_118__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,7 +5417,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>2.185167551040649</c:v>
+                  <c:v>2.185149908065796</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.910763263702393</c:v>
@@ -5426,7 +5426,7 @@
                   <c:v>85.06715393066406</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.03162956237793</c:v>
+                  <c:v>-9.031635284423828</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>92.59609985351562</c:v>
@@ -5435,25 +5435,25 @@
                   <c:v>-0.9703362584114075</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.5287765264511108</c:v>
+                  <c:v>-0.5287824273109436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.645997524261475</c:v>
+                  <c:v>-2.645985841751099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.42365264892578</c:v>
+                  <c:v>91.42363739013672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.553868889808655</c:v>
+                  <c:v>-1.55388069152832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>89.84486389160156</c:v>
+                  <c:v>89.84482574462891</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.830774545669556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.5438463091850281</c:v>
+                  <c:v>-0.5438404083251953</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>81.37593078613281</c:v>
@@ -5471,7 +5471,7 @@
                   <c:v>94.83412170410156</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.250016689300537</c:v>
+                  <c:v>-1.250028491020203</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>94.84616851806641</c:v>
@@ -5483,52 +5483,52 @@
                   <c:v>89.50244140625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-3.324950456619263</c:v>
+                  <c:v>-3.324962139129639</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-2.859277963638306</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9802924394607544</c:v>
+                  <c:v>0.9802865386009216</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.090006589889526</c:v>
+                  <c:v>-2.090012311935425</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.6862256526947021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.4630598127841949</c:v>
+                  <c:v>-0.4630657136440277</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>78.53285217285156</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.877702534198761</c:v>
+                  <c:v>-0.877708375453949</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>92.80553436279297</c:v>
+                  <c:v>92.80552673339844</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>91.78369903564453</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-2.418012619018555</c:v>
+                  <c:v>-2.418030261993408</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>93.020751953125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-1.095306992530823</c:v>
+                  <c:v>-1.095324635505676</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>92.98639678955078</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.633500695228577</c:v>
+                  <c:v>-1.633494734764099</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>81.50699615478516</c:v>
+                  <c:v>81.50698852539062</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>69.39090728759766</c:v>
@@ -5543,34 +5543,34 @@
                   <c:v>-1.293959379196167</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>85.27323913574219</c:v>
+                  <c:v>85.27325439453125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.63309478759766</c:v>
+                  <c:v>88.63311767578125</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-3.288748741149902</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.4948312342166901</c:v>
+                  <c:v>-0.4948253333568573</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94.41898345947266</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.029998302459717</c:v>
+                  <c:v>2.029992580413818</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.561309456825256</c:v>
+                  <c:v>-1.561315417289734</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>94.52260589599609</c:v>
+                  <c:v>94.52259826660156</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>80.23851776123047</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-2.798863410949707</c:v>
+                  <c:v>-2.798881053924561</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>91.34785461425781</c:v>
@@ -5582,7 +5582,7 @@
                   <c:v>90.51480102539062</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.3326750099658966</c:v>
+                  <c:v>-0.3326809108257294</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>97.93736267089844</c:v>
@@ -5591,7 +5591,7 @@
                   <c:v>90.51670074462891</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-1.610795855522156</c:v>
+                  <c:v>-1.610790014266968</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>91.87380218505859</c:v>
@@ -5606,64 +5606,64 @@
                   <c:v>11.66615676879883</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.568514466285706</c:v>
+                  <c:v>-1.56850266456604</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>89.891357421875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.381783246994019</c:v>
+                  <c:v>3.381789207458496</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>27.71515655517578</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.1539306640625</c:v>
+                  <c:v>-1.153942465782166</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>91.38529968261719</c:v>
+                  <c:v>91.38529205322266</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>97.14924621582031</c:v>
+                  <c:v>97.14923858642578</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>98.54081726074219</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>89.79247283935547</c:v>
+                  <c:v>89.79244995117188</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>86.70429992675781</c:v>
+                  <c:v>86.70431518554688</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.436888217926025</c:v>
+                  <c:v>-2.436899900436401</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>93.87331390380859</c:v>
+                  <c:v>93.87332153320312</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>97.88439178466797</c:v>
+                  <c:v>97.88437652587891</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>78.50803375244141</c:v>
+                  <c:v>78.50801849365234</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>91.08222961425781</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.336211323738098</c:v>
+                  <c:v>-1.33620548248291</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>23.52883148193359</c:v>
+                  <c:v>23.52881813049316</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>94.05591583251953</c:v>
+                  <c:v>94.05590057373047</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>57.38381958007812</c:v>
+                  <c:v>57.38380813598633</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.381632804870605</c:v>
+                  <c:v>-1.381626844406128</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-2.603162288665771</c:v>
@@ -5672,10 +5672,10 @@
                   <c:v>94.5948486328125</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-2.027718544006348</c:v>
+                  <c:v>-2.027700901031494</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.253989219665527</c:v>
+                  <c:v>6.25397777557373</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>98.17433166503906</c:v>
@@ -5684,7 +5684,7 @@
                   <c:v>0.106092281639576</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>92.87516021728516</c:v>
+                  <c:v>92.87514495849609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.185167551040649</v>
+        <v>2.185149908065796</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-9.03162956237793</v>
+        <v>-9.031635284423828</v>
       </c>
       <c r="G5">
         <v>101</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.5287765264511108</v>
+        <v>-0.5287824273109436</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-2.645997524261475</v>
+        <v>-2.645985841751099</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>90.36060000000001</v>
       </c>
       <c r="F10">
-        <v>91.42365264892578</v>
+        <v>91.42363739013672</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-1.553868889808655</v>
+        <v>-1.55388069152832</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>89.84486389160156</v>
+        <v>89.84482574462891</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.5438463091850281</v>
+        <v>-0.5438404083251953</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>-1.250016689300537</v>
+        <v>-1.250028491020203</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-3.324950456619263</v>
+        <v>-3.324962139129639</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.9802924394607544</v>
+        <v>0.9802865386009216</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-2.090006589889526</v>
+        <v>-2.090012311935425</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.4630598127841949</v>
+        <v>-0.4630657136440277</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-0.877702534198761</v>
+        <v>-0.877708375453949</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>92.80553436279297</v>
+        <v>92.80552673339844</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-2.418012619018555</v>
+        <v>-2.418030261993408</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-1.095306992530823</v>
+        <v>-1.095324635505676</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-1.633500695228577</v>
+        <v>-1.633494734764099</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>81.50699615478516</v>
+        <v>81.50698852539062</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>85.27323913574219</v>
+        <v>85.27325439453125</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>88.63309478759766</v>
+        <v>88.63311767578125</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.4948312342166901</v>
+        <v>-0.4948253333568573</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>2.029998302459717</v>
+        <v>2.029992580413818</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-1.561309456825256</v>
+        <v>-1.561315417289734</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>94.52260589599609</v>
+        <v>94.52259826660156</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-2.798863410949707</v>
+        <v>-2.798881053924561</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.3326750099658966</v>
+        <v>-0.3326809108257294</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-1.610795855522156</v>
+        <v>-1.610790014266968</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-1.568514466285706</v>
+        <v>-1.56850266456604</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>3.381783246994019</v>
+        <v>3.381789207458496</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.1539306640625</v>
+        <v>-1.153942465782166</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>91.38529968261719</v>
+        <v>91.38529205322266</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>97.14924621582031</v>
+        <v>97.14923858642578</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>89.79247283935547</v>
+        <v>89.79244995117188</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>66.9032</v>
       </c>
       <c r="F74">
-        <v>86.70429992675781</v>
+        <v>86.70431518554688</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-2.436888217926025</v>
+        <v>-2.436899900436401</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>93.87331390380859</v>
+        <v>93.87332153320312</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>97.88439178466797</v>
+        <v>97.88437652587891</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>78.50803375244141</v>
+        <v>78.50801849365234</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>-1.336211323738098</v>
+        <v>-1.33620548248291</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>23.52883148193359</v>
+        <v>23.52881813049316</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>94.37</v>
       </c>
       <c r="F82">
-        <v>94.05591583251953</v>
+        <v>94.05590057373047</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>57.38381958007812</v>
+        <v>57.38380813598633</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-1.381632804870605</v>
+        <v>-1.381626844406128</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-2.027718544006348</v>
+        <v>-2.027700901031494</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.253989219665527</v>
+        <v>6.25397777557373</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>92.87516021728516</v>
+        <v>92.87514495849609</v>
       </c>
     </row>
     <row r="92" spans="1:6">
